--- a/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1803770894445727</v>
+        <v>0.1827468262462398</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1682491909739532</v>
+        <v>0.1670476600944024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1649652215227636</v>
+        <v>0.163827853116671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1269849903513466</v>
+        <v>0.1255032713793608</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2016842887088773</v>
+        <v>0.2011760263866166</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2129308358307978</v>
+        <v>0.2122191792492465</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1937677346132906</v>
+        <v>0.1895553923048639</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1243119532481391</v>
+        <v>0.125192773600508</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2030492800188023</v>
+        <v>0.2009172866060042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2014222652585327</v>
+        <v>0.1981537825990346</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1896626063405914</v>
+        <v>0.1878963438033556</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1332420369351061</v>
+        <v>0.1321881877786732</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2463423209282126</v>
+        <v>0.2447445048290099</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2220016417202987</v>
+        <v>0.2238213505052312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2383938050201174</v>
+        <v>0.2350663407436754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1910219292117499</v>
+        <v>0.1921348496676316</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.257863200219358</v>
+        <v>0.2557731996327604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2643677131869828</v>
+        <v>0.2661004585682709</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2576250563696508</v>
+        <v>0.2602559862022105</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1659925323788413</v>
+        <v>0.1642152278153201</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2424953543781111</v>
+        <v>0.2412103475012627</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2393376530504091</v>
+        <v>0.2384900514111113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2375236224460648</v>
+        <v>0.2391897782935802</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1688083198798125</v>
+        <v>0.1686251570924614</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2896130470451075</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1932096221897712</v>
+        <v>0.1932096221897713</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.38209164469997</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3523700850994832</v>
+        <v>0.3479834520294592</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3204653002352656</v>
+        <v>0.3199083715975474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2806601104795202</v>
+        <v>0.2811594312476768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1890952212701029</v>
+        <v>0.1887644591745092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3593500287892251</v>
+        <v>0.3607251937949315</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3113438064277986</v>
+        <v>0.3083418596874989</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2686923659188697</v>
+        <v>0.2683001228036716</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1776912831276276</v>
+        <v>0.1768768293488945</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3642481684180802</v>
+        <v>0.3637903758534364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.323605085546404</v>
+        <v>0.3222351409669951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2818568437670309</v>
+        <v>0.279651977845068</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1893919336251297</v>
+        <v>0.1908828054244324</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4033588919251072</v>
+        <v>0.4045887196235337</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3698410386923688</v>
+        <v>0.3661025219371137</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3291500349681825</v>
+        <v>0.3297168905741248</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2316777766417858</v>
+        <v>0.2316670808514043</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4110600598674361</v>
+        <v>0.4133213400595584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3594991037073221</v>
+        <v>0.3576712113386136</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.313212833627263</v>
+        <v>0.3128242403269549</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2090922680432207</v>
+        <v>0.2084701703868621</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.402706703982871</v>
+        <v>0.4003199074943767</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3587824581608423</v>
+        <v>0.3575318547599415</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3141154391782773</v>
+        <v>0.3119409517900593</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2159566172853682</v>
+        <v>0.2162524462069369</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.2358509493702407</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1783004542804449</v>
+        <v>0.1783004542804448</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2740656142863344</v>
+        <v>0.2726409735288424</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2782878044301443</v>
+        <v>0.2771882027840692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.214691411985667</v>
+        <v>0.2144225234759091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1294833333444622</v>
+        <v>0.1316477534759125</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2696960364215673</v>
+        <v>0.2680040067088836</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2232661033097969</v>
+        <v>0.2175601760906475</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1830919982400441</v>
+        <v>0.1825714196489345</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.169943023028627</v>
+        <v>0.171582651972817</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2848815166415934</v>
+        <v>0.2830181183928918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2651516494581894</v>
+        <v>0.2622861271507061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2088794118666772</v>
+        <v>0.2114886543893296</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.158106575805763</v>
+        <v>0.1593602815574819</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.365912808227776</v>
+        <v>0.3633374771357448</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3682125353048262</v>
+        <v>0.3720612956196678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2968379367374429</v>
+        <v>0.29923068090584</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1926916876734181</v>
+        <v>0.1958781322279792</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3638760570454689</v>
+        <v>0.3625413159147159</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3138862668817404</v>
+        <v>0.313858472115912</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2534271305995208</v>
+        <v>0.2586060656115014</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2239688031547772</v>
+        <v>0.2228380015231852</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3498387848196299</v>
+        <v>0.3493772665634705</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3266983314294313</v>
+        <v>0.3269901491585814</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2627131332542202</v>
+        <v>0.2634217198028952</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1992587698467411</v>
+        <v>0.2002110374100173</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2830806747336218</v>
+        <v>0.2834168145857113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2593683947460998</v>
+        <v>0.2597444438338453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.175527040479659</v>
+        <v>0.1769644035844695</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2751100039196176</v>
+        <v>0.2720200953358037</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2456928475144984</v>
+        <v>0.2457979796536859</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1723900754884199</v>
+        <v>0.1716994056675896</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2836848805021951</v>
+        <v>0.2837534291914222</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.258069335191065</v>
+        <v>0.2574825102311364</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1771845520226344</v>
+        <v>0.17753800566091</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3185723533161389</v>
+        <v>0.3179918185658162</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2950369916228536</v>
+        <v>0.2952622863366111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2072326191428308</v>
+        <v>0.2080049614784887</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.309220489489893</v>
+        <v>0.3054411228093306</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2793548063242163</v>
+        <v>0.2791617776134167</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1948173932407379</v>
+        <v>0.1954733179772848</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3073503052967509</v>
+        <v>0.3070100964916037</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2816366441128219</v>
+        <v>0.2806740213320496</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1974095953571948</v>
+        <v>0.1961125754460987</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>124158</v>
+        <v>125789</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>130935</v>
+        <v>130000</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>75458</v>
+        <v>74938</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>68074</v>
+        <v>67280</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>193407</v>
+        <v>192920</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>240256</v>
+        <v>239453</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>123793</v>
+        <v>121102</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>97534</v>
+        <v>98225</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>334480</v>
+        <v>330968</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>384021</v>
+        <v>377789</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>207926</v>
+        <v>205989</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>175969</v>
+        <v>174577</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>169564</v>
+        <v>168464</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>172766</v>
+        <v>174182</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>109046</v>
+        <v>107524</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>102403</v>
+        <v>103000</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>247280</v>
+        <v>245276</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>298293</v>
+        <v>300248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>164590</v>
+        <v>166271</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>130236</v>
+        <v>128842</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>399459</v>
+        <v>397342</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>456308</v>
+        <v>454692</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>260395</v>
+        <v>262222</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>222940</v>
+        <v>222699</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>463172</v>
+        <v>457406</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>540447</v>
+        <v>539508</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>476169</v>
+        <v>477016</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>405889</v>
+        <v>405179</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>493458</v>
+        <v>495346</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>495123</v>
+        <v>490349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>459120</v>
+        <v>458450</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>374915</v>
+        <v>373197</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>978969</v>
+        <v>977739</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1060364</v>
+        <v>1055875</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>959814</v>
+        <v>952306</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>806128</v>
+        <v>812474</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>530194</v>
+        <v>531811</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>623716</v>
+        <v>617411</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>558438</v>
+        <v>559399</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>497291</v>
+        <v>497268</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>564466</v>
+        <v>567571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>571704</v>
+        <v>568797</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>535193</v>
+        <v>534529</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>441169</v>
+        <v>439856</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1082332</v>
+        <v>1075917</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1175630</v>
+        <v>1171532</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1069665</v>
+        <v>1062260</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>919198</v>
+        <v>920457</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>123584</v>
+        <v>122942</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>123041</v>
+        <v>122554</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>107183</v>
+        <v>107049</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>90877</v>
+        <v>92396</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>110247</v>
+        <v>109555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94174</v>
+        <v>91767</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>93069</v>
+        <v>92805</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>123109</v>
+        <v>124297</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>244916</v>
+        <v>243314</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>229074</v>
+        <v>226598</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>210459</v>
+        <v>213088</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>225500</v>
+        <v>227288</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>165001</v>
+        <v>163839</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>162799</v>
+        <v>164501</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>148195</v>
+        <v>149389</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>135239</v>
+        <v>137475</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>148746</v>
+        <v>148201</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>132397</v>
+        <v>132386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>128822</v>
+        <v>131455</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>162246</v>
+        <v>161427</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>300761</v>
+        <v>300364</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>282246</v>
+        <v>282498</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>264700</v>
+        <v>265414</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>284194</v>
+        <v>285552</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>822858</v>
+        <v>823835</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>688174</v>
+        <v>689172</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>594054</v>
+        <v>598918</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>863957</v>
+        <v>854253</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>701677</v>
+        <v>701978</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>623867</v>
+        <v>621368</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1715500</v>
+        <v>1715915</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1421751</v>
+        <v>1418518</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1240882</v>
+        <v>1243357</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>926025</v>
+        <v>924338</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>782813</v>
+        <v>783410</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>701358</v>
+        <v>703972</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>971078</v>
+        <v>959209</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>797813</v>
+        <v>797262</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>705030</v>
+        <v>707404</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1858610</v>
+        <v>1856552</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1551588</v>
+        <v>1546284</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1382524</v>
+        <v>1373441</v>
       </c>
     </row>
     <row r="20">
